--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>803.1930335772629</v>
+        <v>751.8111941728971</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.29303357727107</v>
+        <v>51.81119417289708</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.06495752168237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.06495752168237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>332.9799999999918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>420.92</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.27021167277385</v>
+        <v>18.39136528268722</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.34207471385628</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.67685125555192</v>
+        <v>16.16637066025754</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,76 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>238.8099999999994</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>229.55</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>231.4649999999997</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>231.7699999999995</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>234.8949999999998</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>197.8350000000009</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>195.15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>194.995000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>196.35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>195.4250000000009</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.22000000000843</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.59000000001168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85500000000997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.99000000001072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>93.39000000000036</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>93.47500000000036</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>91.28000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>91.81500000000037</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>93.57500000000036</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>82.84000000000916</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.0650000000124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.7800000000107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>80.64500000001145</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.8100000000109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>82.84000000000916</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>81.0650000000124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>70.7800000000107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>80.64500000001145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>84.8100000000109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>238.8099999999987</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>229.55</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>231.4649999999991</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>231.7699999999988</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>234.8949999999992</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>38.80999999999869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>29.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>31.46499999999912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>31.76999999999884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>34.89499999999924</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,61 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
